--- a/WebSite/bExcellent.mvc/ExcelTemplates/PSE_DataDumb.xlsx
+++ b/WebSite/bExcellent.mvc/ExcelTemplates/PSE_DataDumb.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\My Passion\GitHub Projects\Pipe9Feedback\WebSite\bExcellent.mvc\ExcelTemplates\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Pivot" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Manager Report'!$A$1:$Y$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Manager Report'!$A$1:$Z$1</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <pivotCaches>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="78">
   <si>
     <t>Area</t>
   </si>
@@ -254,6 +254,12 @@
   </si>
   <si>
     <t>Q50</t>
+  </si>
+  <si>
+    <t>CompletedOn</t>
+  </si>
+  <si>
+    <t>PSE Alias</t>
   </si>
 </sst>
 </file>
@@ -341,7 +347,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshOnLoad="1" refreshedBy="Admin" refreshedDate="42853.742450347221" createdVersion="4" refreshedVersion="6" minRefreshableVersion="3" recordCount="2">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshOnLoad="1" refreshedBy="Admin" refreshedDate="43011.786143634257" createdVersion="4" refreshedVersion="6" minRefreshableVersion="3" recordCount="2">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:F1048576" sheet="Manager Report"/>
   </cacheSource>
@@ -711,10 +717,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BW2"/>
+  <dimension ref="A1:BY2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="AA1" sqref="AA1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -725,11 +731,12 @@
     <col min="4" max="4" width="21" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="22.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="12" width="22.85546875" customWidth="1"/>
-    <col min="25" max="25" width="15" customWidth="1"/>
+    <col min="7" max="13" width="22.85546875" customWidth="1"/>
+    <col min="26" max="26" width="15" customWidth="1"/>
+    <col min="77" max="77" width="13.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:75" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:77" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
@@ -752,211 +759,217 @@
         <v>6</v>
       </c>
       <c r="H1" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="I1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="J1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="K1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="L1" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="M1" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="N1" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="N1" s="5" t="s">
+      <c r="O1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="O1" s="5" t="s">
+      <c r="P1" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="P1" s="5" t="s">
+      <c r="Q1" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="Q1" s="5" t="s">
+      <c r="R1" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="R1" s="5" t="s">
+      <c r="S1" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="S1" s="5" t="s">
+      <c r="T1" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="T1" s="5" t="s">
+      <c r="U1" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="U1" s="5" t="s">
+      <c r="V1" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="V1" s="5" t="s">
+      <c r="W1" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="W1" s="5" t="s">
+      <c r="X1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="X1" s="5" t="s">
+      <c r="Y1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="Y1" s="5" t="s">
+      <c r="Z1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="Z1" s="5" t="s">
+      <c r="AA1" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="AA1" s="5" t="s">
+      <c r="AB1" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="AB1" s="5" t="s">
+      <c r="AC1" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AC1" s="5" t="s">
+      <c r="AD1" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="AD1" s="5" t="s">
+      <c r="AE1" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="AE1" s="5" t="s">
+      <c r="AF1" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="AF1" s="5" t="s">
+      <c r="AG1" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="AG1" s="5" t="s">
+      <c r="AH1" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="AH1" s="5" t="s">
+      <c r="AI1" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="AI1" s="5" t="s">
+      <c r="AJ1" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="AJ1" s="5" t="s">
+      <c r="AK1" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="AK1" s="5" t="s">
+      <c r="AL1" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="AL1" s="5" t="s">
+      <c r="AM1" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="AM1" s="5" t="s">
+      <c r="AN1" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="AN1" s="5" t="s">
+      <c r="AO1" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="AO1" s="5" t="s">
+      <c r="AP1" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="AP1" s="5" t="s">
+      <c r="AQ1" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="AQ1" s="5" t="s">
+      <c r="AR1" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="AR1" s="5" t="s">
+      <c r="AS1" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="AS1" s="5" t="s">
+      <c r="AT1" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="AT1" s="5" t="s">
+      <c r="AU1" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="AU1" s="5" t="s">
+      <c r="AV1" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="AV1" t="s">
+      <c r="AW1" t="s">
         <v>48</v>
       </c>
-      <c r="AW1" t="s">
+      <c r="AX1" t="s">
         <v>49</v>
       </c>
-      <c r="AX1" t="s">
+      <c r="AY1" t="s">
         <v>50</v>
       </c>
-      <c r="AY1" t="s">
+      <c r="AZ1" t="s">
         <v>51</v>
       </c>
-      <c r="AZ1" t="s">
+      <c r="BA1" t="s">
         <v>52</v>
       </c>
-      <c r="BA1" t="s">
+      <c r="BB1" t="s">
         <v>53</v>
       </c>
-      <c r="BB1" t="s">
+      <c r="BC1" t="s">
         <v>54</v>
       </c>
-      <c r="BC1" t="s">
+      <c r="BD1" t="s">
         <v>55</v>
       </c>
-      <c r="BD1" t="s">
+      <c r="BE1" t="s">
         <v>56</v>
       </c>
-      <c r="BE1" t="s">
+      <c r="BF1" t="s">
         <v>57</v>
       </c>
-      <c r="BF1" t="s">
+      <c r="BG1" t="s">
         <v>58</v>
       </c>
-      <c r="BG1" t="s">
+      <c r="BH1" t="s">
         <v>59</v>
       </c>
-      <c r="BH1" t="s">
+      <c r="BI1" t="s">
         <v>60</v>
       </c>
-      <c r="BI1" t="s">
+      <c r="BJ1" t="s">
         <v>61</v>
       </c>
-      <c r="BJ1" t="s">
+      <c r="BK1" t="s">
         <v>62</v>
       </c>
-      <c r="BK1" t="s">
+      <c r="BL1" t="s">
         <v>63</v>
       </c>
-      <c r="BL1" t="s">
+      <c r="BM1" t="s">
         <v>64</v>
       </c>
-      <c r="BM1" t="s">
+      <c r="BN1" t="s">
         <v>65</v>
       </c>
-      <c r="BN1" t="s">
+      <c r="BO1" t="s">
         <v>66</v>
       </c>
-      <c r="BO1" t="s">
+      <c r="BP1" t="s">
         <v>67</v>
       </c>
-      <c r="BP1" t="s">
+      <c r="BQ1" t="s">
         <v>68</v>
       </c>
-      <c r="BQ1" t="s">
+      <c r="BR1" t="s">
         <v>69</v>
       </c>
-      <c r="BR1" t="s">
+      <c r="BS1" t="s">
         <v>70</v>
       </c>
-      <c r="BS1" t="s">
+      <c r="BT1" t="s">
         <v>71</v>
       </c>
-      <c r="BT1" t="s">
+      <c r="BU1" t="s">
         <v>72</v>
       </c>
-      <c r="BU1" t="s">
+      <c r="BV1" t="s">
         <v>73</v>
       </c>
-      <c r="BV1" t="s">
+      <c r="BW1" t="s">
         <v>74</v>
       </c>
-      <c r="BW1" t="s">
+      <c r="BX1" t="s">
         <v>75</v>
       </c>
+      <c r="BY1" t="s">
+        <v>76</v>
+      </c>
     </row>
-    <row r="2" spans="1:75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -969,9 +982,10 @@
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:Y1"/>
+  <autoFilter ref="A1:Z1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
 </worksheet>
